--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,31 +604,111 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O3" t="n">
         <v>20000</v>
       </c>
       <c r="P3" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>1083</v>
+      </c>
+      <c r="T3" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44320</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>50</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P4" t="n">
         <v>18800</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S3" t="n">
+      <c r="S4" t="n">
         <v>1044</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T4" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
         <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44362</v>
+        <v>45084</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,31 +684,111 @@
         </is>
       </c>
       <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>20000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>19500</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Provincia de Curicó</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>1083</v>
+      </c>
+      <c r="T4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="E5" t="n">
+        <v>8</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>50</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>21000</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>20400</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>$/caja 18 kilos granel</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Provincia de Limarí</t>
         </is>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>1133</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>18</v>
       </c>
     </row>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O2" t="n">
         <v>18000</v>
       </c>
-      <c r="O2" t="n">
-        <v>20000</v>
-      </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>972</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
         <v>20000</v>
       </c>
-      <c r="O5" t="n">
-        <v>21000</v>
-      </c>
       <c r="P5" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -792,6 +792,86 @@
         <v>18</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vega Monumental Concepción</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bíobío</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45106</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruta</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>100104</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frutos de pepita</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>100104001</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Wonderfull</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>50</v>
+      </c>
+      <c r="N6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>$/caja 18 kilos granel</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Región de O'Higgins</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>556</v>
+      </c>
+      <c r="T6" t="n">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1133</v>
+        <v>972</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O2" t="n">
         <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
         <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O2" t="n">
         <v>18000</v>
       </c>
-      <c r="O2" t="n">
-        <v>20000</v>
-      </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>972</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>45106</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>18800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45106</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>556</v>
+        <v>1083</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45106</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>556</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O4" t="n">
         <v>20000</v>
       </c>
-      <c r="O4" t="n">
-        <v>21000</v>
-      </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
+        <v>17000</v>
+      </c>
+      <c r="O5" t="n">
         <v>18000</v>
       </c>
-      <c r="O5" t="n">
-        <v>20000</v>
-      </c>
       <c r="P5" t="n">
-        <v>18800</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1044</v>
+        <v>972</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>45106</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>10000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>10000</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1083</v>
+        <v>556</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>972</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44320</v>
+        <v>45106</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>18800</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1044</v>
+        <v>556</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N3" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O3" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P3" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O5" t="n">
         <v>20000</v>
       </c>
-      <c r="O5" t="n">
-        <v>21000</v>
-      </c>
       <c r="P5" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45084</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>17000</v>
+        <v>18000</v>
       </c>
       <c r="O3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="P3" t="n">
-        <v>17500</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>972</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44719</v>
+        <v>45106</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>21000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>20400</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1133</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -767,13 +767,13 @@
         <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>556</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45106</v>
+        <v>44362</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>19000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>19500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>1083</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44719</v>
+        <v>45084</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
-        <v>20000</v>
+        <v>17000</v>
       </c>
       <c r="O5" t="n">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="P5" t="n">
-        <v>20400</v>
+        <v>17500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1133</v>
+        <v>972</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>44320</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>18000</v>
       </c>
       <c r="O6" t="n">
         <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>18800</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1083</v>
+        <v>1044</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O3" t="n">
         <v>20000</v>
       </c>
-      <c r="O3" t="n">
-        <v>21000</v>
-      </c>
       <c r="P3" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44362</v>
+        <v>45084</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N5" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O5" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P5" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44320</v>
+        <v>44362</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -844,16 +844,16 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>18000</v>
+        <v>19000</v>
       </c>
       <c r="O6" t="n">
         <v>20000</v>
       </c>
       <c r="P6" t="n">
-        <v>18800</v>
+        <v>19500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1044</v>
+        <v>1083</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O2" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P2" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O4" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P4" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>972</v>
+        <v>556</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>45106</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>10000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>10000</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>556</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45106</v>
+        <v>45084</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -684,16 +684,16 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>17000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>17500</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>972</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45084</v>
+        <v>44719</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N2" t="n">
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="O2" t="n">
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="P2" t="n">
-        <v>17500</v>
+        <v>20400</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S2" t="n">
-        <v>972</v>
+        <v>1133</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44320</v>
+        <v>45106</v>
       </c>
       <c r="E3" t="n">
         <v>8</v>
@@ -607,13 +607,13 @@
         <v>50</v>
       </c>
       <c r="N3" t="n">
-        <v>18000</v>
+        <v>10000</v>
       </c>
       <c r="O3" t="n">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="P3" t="n">
-        <v>18800</v>
+        <v>10000</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -622,11 +622,11 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S3" t="n">
-        <v>1044</v>
+        <v>556</v>
       </c>
       <c r="T3" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45106</v>
+        <v>44320</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="O4" t="n">
-        <v>10000</v>
+        <v>20000</v>
       </c>
       <c r="P4" t="n">
-        <v>10000</v>
+        <v>18800</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -702,11 +702,11 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Región de O'Higgins</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="S4" t="n">
-        <v>556</v>
+        <v>1044</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44719</v>
+        <v>44362</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -764,16 +764,16 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="N5" t="n">
+        <v>19000</v>
+      </c>
+      <c r="O5" t="n">
         <v>20000</v>
       </c>
-      <c r="O5" t="n">
-        <v>21000</v>
-      </c>
       <c r="P5" t="n">
-        <v>20400</v>
+        <v>19500</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia de Curicó</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="T5" t="n">
         <v>18</v>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44362</v>
+        <v>45084</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
@@ -847,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="N6" t="n">
-        <v>19000</v>
+        <v>17000</v>
       </c>
       <c r="O6" t="n">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="P6" t="n">
-        <v>19500</v>
+        <v>17500</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -862,11 +862,11 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Provincia de Curicó</t>
+          <t>Región de O'Higgins</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>1083</v>
+        <v>972</v>
       </c>
       <c r="T6" t="n">
         <v>18</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Fruta, Vega Monumental Concepción - Granada.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44719</v>
+        <v>44320</v>
       </c>
       <c r="E2" t="n">
         <v>8</v>
@@ -527,13 +527,13 @@
         <v>50</v>
       </c>
       <c r="N2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="O2" t="n">
         <v>20000</v>
       </c>
-      <c r="O2" t="n">
-        <v>21000</v>
-      </c>
       <c r="P2" t="n">
-        <v>20400</v>
+        <v>18800</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="S2" t="n">
-        <v>1133</v>
+        <v>1044</v>
       </c>
       <c r="T2" t="n">
         <v>18</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44320</v>
+        <v>44719</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -687,13 +687,13 @@
         <v>50</v>
       </c>
       <c r="N4" t="n">
-        <v>18000</v>
+        <v>20000</v>
       </c>
       <c r="O4" t="n">
-        <v>20000</v>
+        <v>21000</v>
       </c>
       <c r="P4" t="n">
-        <v>18800</v>
+        <v>20400</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="T4" t="n">
         <v>18</v>
